--- a/01-beginner/054-hands-on-01-disney-trip.xlsx
+++ b/01-beginner/054-hands-on-01-disney-trip.xlsx
@@ -197,6 +197,103 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>714374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A84260A-FCAD-4416-A31F-809BF18A61D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7172325" y="1081087"/>
+          <a:ext cx="4276726" cy="3109913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="190500" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="65000" dist="50800" dir="12900000" kx="195000" ky="145000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="30000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="360000"/>
+          </a:camera>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d contourW="12700">
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="969696"/>
+          </a:contourClr>
+        </a:sp3d>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -599,7 +696,7 @@
   <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -685,5 +782,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>